--- a/bots/crawl_ch/output/bread_coop_2022-12-08.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-08.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2845,13 +2845,13 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Baguettes - Online kein Bestand 1.00 Schweizer Franken</t>
+          <t>Prix Garantie Frischback Baguettes 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm 4.40 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm - Online kein Bestand 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8904,7 +8904,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9330,7 +9330,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9829,7 +9829,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10040,7 +10040,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10178,7 +10178,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10462,7 +10462,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10892,7 +10892,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11034,7 +11034,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12308,7 +12308,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12450,7 +12450,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12592,7 +12592,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13095,7 +13095,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13164,7 +13164,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13379,7 +13379,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13813,45 +13813,45 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>6358647</t>
+          <t>3658651</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback</t>
+          <t>Mulino Bianco Weizen-Brot</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-weizen-brot/p/3658651</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>0.58/100g</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13871,56 +13871,56 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback 20% ab 2 Aktion 4.20 Schweizer Franken</t>
+          <t>Mulino Bianco Weizen-Brot 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>3658651</t>
+          <t>6358647</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Mulino Bianco Weizen-Brot</t>
+          <t>Roland Naturaplan Bio Dinkelzwieback</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-weizen-brot/p/3658651</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>0.58/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -13930,7 +13930,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -13940,18 +13940,18 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>Mulino Bianco Weizen-Brot 2.30 Schweizer Franken</t>
+          <t>Roland Naturaplan Bio Dinkelzwieback 20% ab 2 Aktion 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14024,7 +14024,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14166,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14381,45 +14381,45 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>5791680</t>
+          <t>3235483</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Karma Mehrkornbrot mit Chia 250g</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-mehrkornbrot-mit-chia/p/5791680</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E197" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>1.40/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14429,7 +14429,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14439,60 +14439,56 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>Karma Mehrkornbrot mit Chia 250g 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>3023036</t>
+          <t>5791680</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Old El Paso Taco-Schalen 12 Stück</t>
+          <t>Karma Mehrkornbrot mit Chia 250g</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-taco-schalen-12-stueck/p/3023036</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-mehrkornbrot-mit-chia/p/5791680</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2.50/100g</t>
+          <t>1.40/100g</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14502,7 +14498,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14512,56 +14508,60 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Old El Paso Taco-Schalen 12 Stück 3.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N198" t="inlineStr"/>
+          <t>Karma Mehrkornbrot mit Chia 250g 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>3690878</t>
+          <t>3023036</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
+          <t>Old El Paso Taco-Schalen 12 Stück</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-taco-schalen-12-stueck/p/3023036</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E199" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.50/100g</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14581,39 +14581,39 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+          <t>Old El Paso Taco-Schalen 12 Stück 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>6628846</t>
+          <t>3690878</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Zitronencake</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zitronencake/p/6628846</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -14625,12 +14625,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>0.95/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14640,7 +14640,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -14650,56 +14650,56 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>Zitronencake 6.20 Schweizer Franken</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 20% ab 2 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>3235483</t>
+          <t>6628846</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
+          <t>Zitronencake</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zitronencake/p/6628846</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E201" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>0.95/100g</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14709,7 +14709,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14719,18 +14719,18 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
+          <t>Zitronencake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14874,7 +14874,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15014,7 +15014,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15152,7 +15152,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15290,7 +15290,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15359,7 +15359,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15432,7 +15432,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15501,7 +15501,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15720,7 +15720,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15866,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15935,7 +15935,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16223,7 +16223,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16292,31 +16292,31 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>3412026</t>
+          <t>6825791</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbuben Guetzliteig</t>
+          <t>Prix Garantie Proteinbrot</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-spitzbuben-guetzliteig/p/3412026</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-proteinbrot/p/6825791</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E224" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -16325,12 +16325,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16340,7 +16340,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -16350,46 +16350,46 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbuben Guetzliteig 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+          <t>Prix Garantie Proteinbrot 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>4886666</t>
+          <t>3412026</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
+          <t>Betty Bossi Spitzbuben Guetzliteig</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-spitzbuben-guetzliteig/p/3412026</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E225" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -16398,12 +16398,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16423,56 +16423,60 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N225" t="inlineStr"/>
+          <t>Betty Bossi Spitzbuben Guetzliteig 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>4859018</t>
+          <t>4886666</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-sandwich-tomate-basilicum/p/4859018</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E226" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16482,7 +16486,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16492,56 +16496,56 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum 5.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>6825791</t>
+          <t>4859018</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Prix Garantie Proteinbrot</t>
+          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-proteinbrot/p/6825791</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-sandwich-tomate-basilicum/p/4859018</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E227" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16551,7 +16555,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16561,22 +16565,18 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Prix Garantie Proteinbrot 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16645,7 +16645,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16787,7 +16787,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16856,7 +16856,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16925,7 +16925,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16998,45 +16998,45 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>3504615</t>
+          <t>6364156</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm</t>
+          <t>Pasquier Pains facon Bretzel</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>1.08/100g</t>
+          <t>1.07/100g</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17056,56 +17056,56 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm 2.70 Schweizer Franken</t>
+          <t>Pasquier Pains facon Bretzel 30% Aktion 2.90 Schweizer Franken statt 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>6364156</t>
+          <t>3504615</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel</t>
+          <t>Betty Bossi Pastateig 2x16x56cm</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E235" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>1.07/100g</t>
+          <t>1.08/100g</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17115,7 +17115,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17125,18 +17125,18 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel 30% Aktion 2.90 Schweizer Franken statt 4.20 Schweizer Franken</t>
+          <t>Betty Bossi Pastateig 2x16x56cm 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17205,7 +17205,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17274,7 +17274,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17343,7 +17343,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17410,7 +17410,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17483,7 +17483,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17552,7 +17552,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17621,7 +17621,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17694,7 +17694,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17767,7 +17767,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17840,7 +17840,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17913,45 +17913,45 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>6628849</t>
+          <t>5747253</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake</t>
+          <t>Pasquier Pitch Choco Barre Lait</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628849</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
         </is>
       </c>
       <c r="D247" t="n">
+        <v>1</v>
+      </c>
+      <c r="E247" t="n">
         <v>3</v>
       </c>
-      <c r="E247" t="n">
-        <v>5</v>
-      </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -17961,7 +17961,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17971,56 +17971,56 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake 2.10 Schweizer Franken</t>
+          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>4864690</t>
+          <t>6628849</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628849</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E248" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18030,7 +18030,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18040,60 +18040,56 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 3.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Grossmutters Schoggi Cake 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>3584194</t>
+          <t>4864690</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E249" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>4.83/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18103,7 +18099,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18113,12 +18109,12 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -18128,45 +18124,45 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>5747253</t>
+          <t>3584194</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait</t>
+          <t>Fine Food Zuger Kirschtorte</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E250" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>4.83/100g</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18176,7 +18172,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18186,18 +18182,22 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N250" t="inlineStr"/>
+          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18270,7 +18270,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18339,7 +18339,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18412,31 +18412,31 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>6989304</t>
+          <t>4234741</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen</t>
+          <t>Naturaplan Bio Vollkorn-Toast</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/naturaplan-bio-vollkorn-toast/p/4234741</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E254" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -18445,12 +18445,12 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>0.66/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18460,7 +18460,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18470,56 +18470,58 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N254" t="inlineStr"/>
+          <t>Naturaplan Bio Vollkorn-Toast 25% Aktion 3.30 Schweizer Franken statt 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>4234741</t>
+          <t>6962218</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkorn-Toast</t>
+          <t>Old el Paso Wraps Classic</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/naturaplan-bio-vollkorn-toast/p/4234741</t>
-        </is>
-      </c>
-      <c r="D255" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
       <c r="E255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>0.66/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18529,7 +18531,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18539,58 +18541,56 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkorn-Toast 25% Aktion 3.30 Schweizer Franken statt 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N255" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old el Paso Wraps Classic 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>6962218</t>
+          <t>3726500</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic</t>
+          <t>Pasquier Schokobrötchen 8St</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>9</v>
+      </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18610,56 +18610,56 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic 3.80 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 8St 30% Aktion 3.20 Schweizer Franken statt 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>3726500</t>
+          <t>6750015</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St</t>
+          <t>Schär Pain Brioché</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>1.34/100g</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18669,7 +18669,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18679,35 +18679,39 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 30% Aktion 3.20 Schweizer Franken statt 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N257" t="inlineStr"/>
+          <t>Schär Pain Brioché 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>6750015</t>
+          <t>6989304</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché</t>
+          <t>JaMaDu Jungle Cracker Randen</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -18718,17 +18722,17 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>1.34/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18738,7 +18742,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18748,22 +18752,18 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18836,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18974,7 +18974,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19043,7 +19043,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19112,7 +19112,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19181,7 +19181,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19254,7 +19254,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19323,45 +19323,45 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>4849123</t>
+          <t>6424899</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
+          <t>Prix Garantie Aprikosen Tartelettes</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E267" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2.47/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19371,7 +19371,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19381,60 +19381,56 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>6424899</t>
+          <t>4849123</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E268" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>2.47/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19444,7 +19440,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19454,18 +19450,22 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N268" t="inlineStr"/>
+          <t>Schär Crackers Pocket glutenfrei 3x50g 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19536,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19609,7 +19609,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19678,45 +19678,43 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>3602932</t>
+          <t>6986883</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen</t>
+          <t>Betty Bossi Strudelteig</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>38</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Mestemacher</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.08/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19726,7 +19724,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19736,18 +19734,22 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N272" t="inlineStr"/>
+          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19816,43 +19818,45 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6986883</t>
+          <t>3602932</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>38</v>
+      </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mestemacher</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2.08/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19862,7 +19866,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19872,22 +19876,18 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19956,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20029,7 +20029,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20098,7 +20098,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20171,7 +20171,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20244,7 +20244,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20313,45 +20313,45 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E281" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20361,7 +20361,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20371,60 +20371,60 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 20% ab 2 Aktion 4.35 Schweizer Franken</t>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>3040971</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Panettone</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E282" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20434,7 +20434,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20444,56 +20444,60 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Panettone 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N282" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Kastanie 20% ab 2 Aktion 4.35 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>3040971</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>Panettone</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E283" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20503,7 +20507,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20513,60 +20517,56 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N283" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Panettone 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>3715589</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Buitoni Pizzateig rund Extra</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E284" t="n">
         <v>4.5</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20586,60 +20586,60 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+          <t>Buitoni Pizzateig rund Extra 20% ab 2 Aktion 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>3715589</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20659,22 +20659,22 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20741,7 +20741,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20814,7 +20814,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20883,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20956,7 +20956,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21025,45 +21025,45 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>6010377</t>
+          <t>6345667</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake</t>
+          <t>Indian Delight Plain Naan Bread</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E291" t="n">
         <v>3.5</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Cailler</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21073,7 +21073,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21083,56 +21083,60 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N291" t="inlineStr"/>
+          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>4496109</t>
+          <t>6010377</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Betty Bossi Amaretti Guetzliteig</t>
+          <t>Cailler Schoggi Branchli Cake</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-amaretti-guetzliteig/p/4496109</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E292" t="n">
         <v>3.5</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Cailler</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21142,7 +21146,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21152,60 +21156,56 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Betty Bossi Amaretti Guetzliteig 20% ab 2 Aktion 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>6345667</t>
+          <t>5646171</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread</t>
+          <t>FreeFrom Mini Baguettes 6 Stück</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/freefrom-mini-baguettes-6-stueck/p/5646171</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E293" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.27/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21225,46 +21225,46 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
+          <t>FreeFrom Mini Baguettes 6 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['frozen', 'gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>5646171</t>
+          <t>4496109</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FreeFrom Mini Baguettes 6 Stück</t>
+          <t>Betty Bossi Amaretti Guetzliteig</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/freefrom-mini-baguettes-6-stueck/p/5646171</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-amaretti-guetzliteig/p/4496109</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E294" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -21273,12 +21273,12 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>1.27/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21298,22 +21298,22 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>FreeFrom Mini Baguettes 6 Stück 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Amaretti Guetzliteig 20% ab 2 Aktion 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>['frozen', 'gluten_free', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21459,7 +21459,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21601,7 +21601,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21670,45 +21670,45 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>6882168</t>
+          <t>5853824</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig</t>
+          <t>Schär Choco Muffins glutenfrei 4 Stück</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-choco-muffins-glutenfrei-4-stueck/p/5853824</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E300" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.00/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21718,7 +21718,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21728,22 +21728,22 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig 3.95 Schweizer Franken</t>
+          <t>Schär Choco Muffins glutenfrei 4 Stück 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21816,7 +21816,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21885,45 +21885,45 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>5853824</t>
+          <t>3378453</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Schär Choco Muffins glutenfrei 4 Stück</t>
+          <t>Betty Bossi Lebkuchen-Teig</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-choco-muffins-glutenfrei-4-stueck/p/5853824</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-lebkuchen-teig/p/3378453</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E303" t="n">
         <v>4.5</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2.00/100g</t>
+          <t>0.68/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21933,7 +21933,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21943,39 +21943,39 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Schär Choco Muffins glutenfrei 4 Stück 5.20 Schweizer Franken</t>
+          <t>Betty Bossi Lebkuchen-Teig - Online kein Bestand 20% ab 2 Aktion 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>3378453</t>
+          <t>6726288</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Betty Bossi Lebkuchen-Teig</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-lebkuchen-teig/p/3378453</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -21991,12 +21991,12 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>0.68/100g</t>
+          <t>2.79/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -22016,60 +22016,60 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Betty Bossi Lebkuchen-Teig - Online kein Bestand 20% ab 2 Aktion 3.40 Schweizer Franken</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6726288</t>
+          <t>6882168</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
+          <t>Leisi Butter-Kuchenteig</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2.79/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22079,7 +22079,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22089,22 +22089,22 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
+          <t>Leisi Butter-Kuchenteig 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22177,7 +22177,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22246,7 +22246,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22315,7 +22315,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22384,7 +22384,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22453,7 +22453,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22526,7 +22526,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22595,7 +22595,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22664,7 +22664,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22737,7 +22737,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22810,45 +22810,45 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6150311</t>
+          <t>6348879</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E316" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -22858,7 +22858,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -22868,46 +22868,50 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N316" t="inlineStr"/>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6348879</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -22917,7 +22921,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>1.76/100g</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -22927,7 +22931,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22937,60 +22941,60 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>6150311</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
         </is>
       </c>
       <c r="D318" t="n">
         <v>9</v>
       </c>
       <c r="E318" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>1.76/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23000,7 +23004,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -23010,22 +23014,18 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N318" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23094,7 +23094,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23167,7 +23167,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23236,7 +23236,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23305,7 +23305,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23374,7 +23374,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23443,45 +23443,45 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>6667340</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Karma Bio Steinofenbrot mit Hanf</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-bio-steinofenbrot-mit-hanf/p/6667340</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E325" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23491,7 +23491,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23501,60 +23501,60 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
+          <t>Karma Bio Steinofenbrot mit Hanf 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>6667340</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Karma Bio Steinofenbrot mit Hanf</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-bio-steinofenbrot-mit-hanf/p/6667340</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E326" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23574,22 +23574,22 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Karma Bio Steinofenbrot mit Hanf 3.95 Schweizer Franken</t>
+          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23658,7 +23658,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23727,24 +23727,24 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>3446126</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -23755,17 +23755,17 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>0.35/100g</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -23775,7 +23775,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -23785,35 +23785,39 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N329" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>3446126</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>Old El Paso Enchilada Kit</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -23824,17 +23828,17 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23844,7 +23848,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23854,22 +23858,18 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23936,7 +23936,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24005,7 +24005,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24078,7 +24078,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24147,7 +24147,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24220,7 +24220,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24289,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24358,7 +24358,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24427,45 +24427,45 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6500790</t>
+          <t>6869975</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat</t>
+          <t>Roland Knäckers Nature</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24475,7 +24475,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -24485,56 +24485,60 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N339" t="inlineStr"/>
+          <t>Roland Knäckers Nature 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>6869975</t>
+          <t>6500790</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature</t>
+          <t>St.Michel Mini Brownies Chocolat</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24544,7 +24548,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24554,22 +24558,18 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N340" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24638,7 +24638,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24707,7 +24707,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24780,45 +24780,43 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>6610484</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Sapori PanettOne</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettone/p/6610484</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
       <c r="E344" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24828,7 +24826,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -24838,54 +24836,56 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.75 Schweizer Franken</t>
+          <t>Sapori PanettOne 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6610484</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Sapori PanettOne</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettone/p/6610484</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>2</v>
+      </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24905,18 +24905,18 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Sapori PanettOne 2.95 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24985,45 +24985,45 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6967945</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>St. Michel Dooomino au chocolat</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25033,7 +25033,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25043,56 +25043,56 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.60 Schweizer Franken</t>
+          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6967945</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25102,7 +25102,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25112,18 +25112,18 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
+          <t>Country Cracker Karotte 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25196,7 +25196,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25269,7 +25269,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25338,7 +25338,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25407,7 +25407,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25476,7 +25476,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25549,7 +25549,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25618,7 +25618,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25691,7 +25691,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25760,7 +25760,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25829,7 +25829,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25896,7 +25896,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25965,7 +25965,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26034,7 +26034,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26103,45 +26103,45 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E363" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26151,7 +26151,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26161,56 +26161,56 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E364" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26220,7 +26220,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26230,18 +26230,18 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26310,45 +26310,45 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>6314192</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Sapori Panettoncino Schokocrème</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettoncino-schokocreme/p/6314192</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E366" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26368,56 +26368,56 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+          <t>Sapori Panettoncino Schokocrème 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E367" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26427,7 +26427,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26437,56 +26437,56 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.70 Schweizer Franken</t>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6314192</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Sapori Panettoncino Schokocrème</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettoncino-schokocreme/p/6314192</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E368" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26496,7 +26496,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26506,18 +26506,18 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Sapori Panettoncino Schokocrème 1.95 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26586,7 +26586,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26659,43 +26659,45 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>6421153</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>Naturaplan Bio Panettone Artigianale</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/naturaplan-bio-panettone-artigianale/p/6421153</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>3</v>
+      </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>3.99/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26705,7 +26707,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26715,56 +26717,54 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Panettone Artigianale 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>7069611</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
-        </is>
-      </c>
-      <c r="D372" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
       <c r="E372" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Blini</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>3.54/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26774,7 +26774,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26784,60 +26784,56 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N372" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Kräuter 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>4144505</t>
+          <t>7069611</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Pandorino</t>
+          <t>Cocktail Blinis 20 Stück</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Blini</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>3.54/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26847,7 +26843,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26857,56 +26853,60 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Pandorino 20% pro 3 Aktion 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr"/>
+          <t>Cocktail Blinis 20 Stück 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>4144505</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Pandorino</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E374" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26916,7 +26916,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26926,60 +26926,56 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Pandorino 20% pro 3 Aktion 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6421153</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Panettone Artigianale</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/naturaplan-bio-panettone-artigianale/p/6421153</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D375" t="n">
+        <v>2</v>
+      </c>
+      <c r="E375" t="n">
         <v>3</v>
       </c>
-      <c r="E375" t="n">
-        <v>4</v>
-      </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>3.99/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26989,7 +26985,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26999,18 +26995,22 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Panettone Artigianale 19.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N375" t="inlineStr"/>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27079,7 +27079,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27152,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27219,43 +27219,45 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>3040820</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Panettone Nostrano</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone-nostrano/p/3040820</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>7</v>
+      </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27265,7 +27267,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27275,60 +27277,54 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N379" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Panettone Nostrano 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
-        </is>
-      </c>
-      <c r="D380" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
       <c r="E380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27338,7 +27334,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27348,60 +27344,60 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
+          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D381" t="n">
         <v>3</v>
       </c>
       <c r="E381" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>1.72/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27411,7 +27407,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27421,56 +27417,60 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N381" t="inlineStr"/>
+          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>3040820</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Panettone Nostrano</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone-nostrano/p/3040820</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E382" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>1.72/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27490,18 +27490,18 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Panettone Nostrano 6.95 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27574,7 +27574,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27647,7 +27647,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27716,7 +27716,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27787,7 +27787,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27856,7 +27856,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27929,7 +27929,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28000,7 +28000,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28073,7 +28073,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28146,7 +28146,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28219,7 +28219,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28290,7 +28290,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28359,7 +28359,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28428,7 +28428,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28497,7 +28497,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28566,7 +28566,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28635,7 +28635,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28702,7 +28702,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28771,7 +28771,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28838,24 +28838,24 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
         </is>
       </c>
       <c r="D402" t="inlineStr"/>
@@ -28864,17 +28864,17 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>0.71/100g</t>
+          <t>2.29/100g</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -28884,7 +28884,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -28899,51 +28899,53 @@
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>Marmor Cake 20% Aktion 4.95 Schweizer Franken statt 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N402" t="inlineStr"/>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 20% Aktion 4.40 Schweizer Franken statt 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>6757196</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
-        </is>
-      </c>
-      <c r="D403" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr"/>
       <c r="E403" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>2.49/100g</t>
+          <t>0.71/100g</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -28953,7 +28955,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -28963,56 +28965,54 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
+          <t>Marmor Cake 20% Aktion 4.95 Schweizer Franken statt 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/ernaehrung/vegetarisch/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
-        </is>
-      </c>
-      <c r="D404" t="n">
-        <v>34</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr"/>
       <c r="E404" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>2.04/100g</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29022,7 +29022,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29032,58 +29032,60 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'ernaehrung', 'vegetarisch']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 20% Aktion 3.80 Schweizer Franken statt 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>['chilled', 'gluten_free']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>6757196</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Vergani Panettone Glutenfrei</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>4</v>
+      </c>
       <c r="E405" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>2.29/100g</t>
+          <t>2.49/100g</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29093,7 +29095,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -29103,60 +29105,56 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 20% Aktion 4.40 Schweizer Franken statt 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N405" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>6359050</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Biber mit Sujet 2x90g</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/biber-mit-sujet-2x90g/p/6359050</t>
+          <t>/de/inspiration-geschenke/ernaehrung/vegetarisch/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E406" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>2.19/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29166,7 +29164,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -29176,56 +29174,58 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['inspiration-geschenke', 'ernaehrung', 'vegetarisch']</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>Biber mit Sujet 2x90g - Online kein Bestand 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N406" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>3040977</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Dahli Marzipanstollen</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
-        </is>
-      </c>
-      <c r="D407" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-marzipanstollen/p/3040977</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr"/>
       <c r="E407" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Dahli</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>1.35/100g</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29235,7 +29235,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -29250,49 +29250,51 @@
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 3.95 Schweizer Franken</t>
+          <t>Dahli Marzipanstollen 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>6359050</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Biber mit Sujet 2x90g</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/biber-mit-sujet-2x90g/p/6359050</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>1</v>
+      </c>
       <c r="E408" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>2.19/100g</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29302,7 +29304,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -29317,49 +29319,51 @@
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+          <t>Biber mit Sujet 2x90g - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>3040977</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Dahli Marzipanstollen</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-marzipanstollen/p/3040977</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>8</v>
+      </c>
       <c r="E409" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Dahli</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>1.35/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29369,7 +29373,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -29384,51 +29388,49 @@
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>Dahli Marzipanstollen 2.70 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
-        </is>
-      </c>
-      <c r="D410" t="n">
-        <v>39</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr"/>
       <c r="E410" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29438,7 +29440,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -29448,46 +29450,42 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N410" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D411" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E411" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -29501,7 +29499,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29511,7 +29509,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -29521,58 +29519,60 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
-        </is>
-      </c>
-      <c r="D412" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>26</v>
+      </c>
       <c r="E412" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>2.04/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -29582,7 +29582,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -29592,22 +29592,22 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 20% Aktion 3.80 Schweizer Franken statt 4.80 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
@@ -29674,7 +29674,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-08 12:57:18</t>
+          <t>2022-12-08 20:49:22</t>
         </is>
       </c>
     </row>
